--- a/Tyrimas/Pallier tyrimas detalus.xlsx
+++ b/Tyrimas/Pallier tyrimas detalus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulius\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulius\Desktop\workspace\Bakalaurinis_darbas\Tyrimas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2ED395-708C-4D58-9C8A-A84E3D2A6776}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2C26FF-2499-4D27-88C5-3D6DA56C5219}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E3C478C-7439-45F6-8CB3-95FE5BB91988}"/>
   </bookViews>
@@ -48,10 +48,10 @@
     <t>Tikslumas procentais</t>
   </si>
   <si>
-    <t>Nuostoliu ir dmdk priklausomybe</t>
+    <t>DMDK reikšmės priklausomybė nuo nuostolių funkcijos reikšmės</t>
   </si>
   <si>
-    <t>Tikslumo ir dmdk priklausomybe</t>
+    <t>DMDK reikšmės priklausomybė nuo modelio tikslumo</t>
   </si>
 </sst>
 </file>
@@ -150,10 +150,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -168,11 +168,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$31</c:f>
+              <c:f>Sheet1!$D$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Nuostolių funkcijos reikšmė</c:v>
+                  <c:v>DMDK reikšmės priklausomybė nuo nuostolių funkcijos reikšmės</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -180,7 +180,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -189,6 +191,163 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.3000752317963992E-2"/>
+                  <c:y val="-7.9071895674057688E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-034C-4182-BD29-45A592BE6208}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.2464738958026806E-2"/>
+                  <c:y val="-5.0016205601418465E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-034C-4182-BD29-45A592BE6208}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.0028751177804945E-2"/>
+                  <c:y val="-5.0016205601418465E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-034C-4182-BD29-45A592BE6208}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:name>Tiesinė priklausomybė</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$C$32:$C$52</c:f>
@@ -268,7 +427,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>6.5806451612903202E-2</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -292,43 +451,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.23577235772357E-2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.6653386454183201E-2</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.1792828685258897E-2</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.6799999999999998E-2</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.6706827309236905E-2</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.105622489959839</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.13159999999999999</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.18433734939759</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.264257028112449</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.50039840637450195</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.68924302788844605</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.37928286852589599</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.29920318725099598</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -341,13 +500,28 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
         <c:axId val="246883488"/>
         <c:axId val="518642248"/>
@@ -359,6 +533,80 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="lt-LT"/>
+                  <a:t>Nuostolių funkcijos</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="lt-LT" baseline="0"/>
+                  <a:t> reikšmė</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -377,7 +625,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -400,7 +648,7 @@
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
+        <c:lblOffset val="0"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -424,6 +672,76 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="lt-LT"/>
+                  <a:t>DMDK reikšmė</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -467,6 +785,41 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -518,10 +871,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -540,7 +893,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tikslumo ir dmdk priklausomybe</c:v>
+                  <c:v>DMDK reikšmės priklausomybė nuo modelio tikslumo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -548,7 +901,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -557,6 +912,235 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.1511726050521563E-2"/>
+                  <c:y val="-7.9052302531259652E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-24FC-4B1C-B534-BAAB509F686F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.1511726050521494E-2"/>
+                  <c:y val="-6.6141862356409481E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-24FC-4B1C-B534-BAAB509F686F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.1511726050521424E-2"/>
+                  <c:y val="-5.3231422181559421E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-24FC-4B1C-B534-BAAB509F686F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.1511726050521494E-2"/>
+                  <c:y val="-0.14360450340550987"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-24FC-4B1C-B534-BAAB509F686F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.0653222403086756E-2"/>
+                  <c:y val="-0.12423884314323473"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-24FC-4B1C-B534-BAAB509F686F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.0975764152649667E-2"/>
+                  <c:y val="-9.5190352749822127E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-24FC-4B1C-B534-BAAB509F686F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.1940977874238862E-2"/>
+                  <c:y val="-7.9052302531259527E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-24FC-4B1C-B534-BAAB509F686F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:name>Tiesinė priklausomybė</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$C$58:$C$78</c:f>
@@ -564,67 +1148,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>39.285714285714199</c:v>
+                  <c:v>39.29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.530612244897902</c:v>
+                  <c:v>51.53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.336734693877503</c:v>
+                  <c:v>54.34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57.142857142857103</c:v>
+                  <c:v>57.14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>59.183673469387699</c:v>
+                  <c:v>59.18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.459183673469298</c:v>
+                  <c:v>60.46</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>61.479591836734599</c:v>
+                  <c:v>61.48</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>62.755102040816297</c:v>
+                  <c:v>62.76</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63.265306122448898</c:v>
+                  <c:v>63.271000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>63.265306122448898</c:v>
+                  <c:v>63.273000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>63.265306122448898</c:v>
+                  <c:v>63.274999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>63.265306122448898</c:v>
+                  <c:v>63.277000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>63.520408163265301</c:v>
+                  <c:v>63.52</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>63.520408163265301</c:v>
+                  <c:v>63.524999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>63.775510204081598</c:v>
+                  <c:v>63.78</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>63.775510204081598</c:v>
+                  <c:v>63.783000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>63.775510204081598</c:v>
+                  <c:v>63.784999999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>63.775510204081598</c:v>
+                  <c:v>63.786999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>63.775510204081598</c:v>
+                  <c:v>63.787999999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>63.775510204081598</c:v>
+                  <c:v>63.789000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -636,7 +1220,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>6.5806451612903202E-2</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -657,46 +1241,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.23577235772357E-2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.6706827309236905E-2</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.105622489959839</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.18433734939759</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.264257028112449</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.6799999999999998E-2</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.13159999999999999</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.6653386454183201E-2</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1792828685258897E-2</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.50039840637450195</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.68924302788844605</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.37928286852589599</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.29920318725099598</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -709,13 +1293,28 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
         <c:axId val="246883488"/>
         <c:axId val="518642248"/>
@@ -727,6 +1326,75 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="lt-LT"/>
+                  <a:t>Modelio tikslumas procentais</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -745,7 +1413,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -792,6 +1460,76 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="lt-LT"/>
+                  <a:t>DMDK reikšmė</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -835,6 +1573,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -880,81 +1649,55 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
   <cs:variation>
-    <a:lumMod val="60000"/>
+    <a:tint val="88500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
+    <a:tint val="55000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
+    <a:tint val="75000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
+    <a:tint val="98500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50000"/>
+    <a:tint val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
+    <a:tint val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
   <cs:variation>
-    <a:lumMod val="60000"/>
+    <a:tint val="88500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
+    <a:tint val="55000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
+    <a:tint val="75000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
+    <a:tint val="98500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50000"/>
+    <a:tint val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
+    <a:tint val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
@@ -1996,15 +2739,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>195262</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2032,15 +2775,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>413325</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>120000</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>53025</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>39075</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2369,8 +3112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E1318B-6FBA-408C-B14A-BC41D2339C05}">
   <dimension ref="C3:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="P48" sqref="P48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2737,7 +3480,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="3">
-        <v>6.5806451612903202E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F32" s="3">
         <v>39.285714285714199</v>
@@ -2849,7 +3592,7 @@
         <v>800</v>
       </c>
       <c r="E40" s="3">
-        <v>2.23577235772357E-2</v>
+        <v>0.02</v>
       </c>
       <c r="F40" s="3">
         <v>62.5</v>
@@ -2863,7 +3606,7 @@
         <v>900</v>
       </c>
       <c r="E41" s="3">
-        <v>3.6653386454183201E-2</v>
+        <v>0.04</v>
       </c>
       <c r="F41" s="3">
         <v>63.775510204081598</v>
@@ -2877,7 +3620,7 @@
         <v>1000</v>
       </c>
       <c r="E42" s="3">
-        <v>5.1792828685258897E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F42" s="3">
         <v>63.775510204081598</v>
@@ -2891,7 +3634,7 @@
         <v>1100</v>
       </c>
       <c r="E43" s="3">
-        <v>6.6799999999999998E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F43" s="3">
         <v>63.520408163265301</v>
@@ -2905,7 +3648,7 @@
         <v>1200</v>
       </c>
       <c r="E44" s="3">
-        <v>7.6706827309236905E-2</v>
+        <v>0.08</v>
       </c>
       <c r="F44" s="3">
         <v>63.265306122448898</v>
@@ -2919,7 +3662,7 @@
         <v>1300</v>
       </c>
       <c r="E45" s="3">
-        <v>0.105622489959839</v>
+        <v>0.11</v>
       </c>
       <c r="F45" s="3">
         <v>63.265306122448898</v>
@@ -2933,7 +3676,7 @@
         <v>1400</v>
       </c>
       <c r="E46" s="3">
-        <v>0.13159999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="F46" s="3">
         <v>63.520408163265301</v>
@@ -2947,7 +3690,7 @@
         <v>1500</v>
       </c>
       <c r="E47" s="3">
-        <v>0.18433734939759</v>
+        <v>0.18</v>
       </c>
       <c r="F47" s="3">
         <v>63.265306122448898</v>
@@ -2961,7 +3704,7 @@
         <v>1600</v>
       </c>
       <c r="E48" s="3">
-        <v>0.264257028112449</v>
+        <v>0.26</v>
       </c>
       <c r="F48" s="3">
         <v>63.265306122448898</v>
@@ -2975,7 +3718,7 @@
         <v>1700</v>
       </c>
       <c r="E49" s="3">
-        <v>0.50039840637450195</v>
+        <v>0.5</v>
       </c>
       <c r="F49" s="3">
         <v>63.775510204081598</v>
@@ -2989,7 +3732,7 @@
         <v>1800</v>
       </c>
       <c r="E50" s="3">
-        <v>0.68924302788844605</v>
+        <v>0.69</v>
       </c>
       <c r="F50" s="3">
         <v>63.775510204081598</v>
@@ -3003,7 +3746,7 @@
         <v>1900</v>
       </c>
       <c r="E51" s="3">
-        <v>0.37928286852589599</v>
+        <v>0.38</v>
       </c>
       <c r="F51" s="3">
         <v>63.775510204081598</v>
@@ -3017,7 +3760,7 @@
         <v>2000</v>
       </c>
       <c r="E52" s="3">
-        <v>0.29920318725099598</v>
+        <v>0.3</v>
       </c>
       <c r="F52" s="3">
         <v>63.775510204081598</v>
@@ -3044,13 +3787,13 @@
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C58" s="3">
-        <v>39.285714285714199</v>
+        <v>39.29</v>
       </c>
       <c r="D58" s="2">
         <v>10</v>
       </c>
       <c r="E58" s="3">
-        <v>6.5806451612903202E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F58" s="3">
         <v>5018.8599999999997</v>
@@ -3058,7 +3801,7 @@
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C59" s="3">
-        <v>51.530612244897902</v>
+        <v>51.53</v>
       </c>
       <c r="D59" s="2">
         <v>100</v>
@@ -3072,7 +3815,7 @@
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C60" s="3">
-        <v>54.336734693877503</v>
+        <v>54.34</v>
       </c>
       <c r="D60" s="2">
         <v>200</v>
@@ -3086,7 +3829,7 @@
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C61" s="3">
-        <v>57.142857142857103</v>
+        <v>57.14</v>
       </c>
       <c r="D61" s="2">
         <v>300</v>
@@ -3100,7 +3843,7 @@
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C62" s="3">
-        <v>59.183673469387699</v>
+        <v>59.18</v>
       </c>
       <c r="D62" s="2">
         <v>400</v>
@@ -3114,7 +3857,7 @@
     </row>
     <row r="63" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C63" s="3">
-        <v>60.459183673469298</v>
+        <v>60.46</v>
       </c>
       <c r="D63" s="2">
         <v>500</v>
@@ -3128,7 +3871,7 @@
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C64" s="3">
-        <v>61.479591836734599</v>
+        <v>61.48</v>
       </c>
       <c r="D64" s="2">
         <v>600</v>
@@ -3148,7 +3891,7 @@
         <v>800</v>
       </c>
       <c r="E65" s="3">
-        <v>2.23577235772357E-2</v>
+        <v>0.02</v>
       </c>
       <c r="F65" s="3">
         <v>2317.4899999999998</v>
@@ -3156,7 +3899,7 @@
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C66" s="3">
-        <v>62.755102040816297</v>
+        <v>62.76</v>
       </c>
       <c r="D66" s="2">
         <v>700</v>
@@ -3170,13 +3913,13 @@
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C67" s="3">
-        <v>63.265306122448898</v>
+        <v>63.271000000000001</v>
       </c>
       <c r="D67" s="2">
         <v>1200</v>
       </c>
       <c r="E67" s="3">
-        <v>7.6706827309236905E-2</v>
+        <v>0.08</v>
       </c>
       <c r="F67" s="3">
         <v>2244.56</v>
@@ -3184,13 +3927,13 @@
     </row>
     <row r="68" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C68" s="3">
-        <v>63.265306122448898</v>
+        <v>63.273000000000003</v>
       </c>
       <c r="D68" s="2">
         <v>1300</v>
       </c>
       <c r="E68" s="3">
-        <v>0.105622489959839</v>
+        <v>0.11</v>
       </c>
       <c r="F68" s="3">
         <v>2234.86</v>
@@ -3198,13 +3941,13 @@
     </row>
     <row r="69" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C69" s="3">
-        <v>63.265306122448898</v>
+        <v>63.274999999999999</v>
       </c>
       <c r="D69" s="2">
         <v>1500</v>
       </c>
       <c r="E69" s="3">
-        <v>0.18433734939759</v>
+        <v>0.18</v>
       </c>
       <c r="F69" s="3">
         <v>2220.7199999999998</v>
@@ -3212,13 +3955,13 @@
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C70" s="3">
-        <v>63.265306122448898</v>
+        <v>63.277000000000001</v>
       </c>
       <c r="D70" s="2">
         <v>1600</v>
       </c>
       <c r="E70" s="3">
-        <v>0.264257028112449</v>
+        <v>0.26</v>
       </c>
       <c r="F70" s="3">
         <v>2215.5700000000002</v>
@@ -3226,13 +3969,13 @@
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C71" s="3">
-        <v>63.520408163265301</v>
+        <v>63.52</v>
       </c>
       <c r="D71" s="2">
         <v>1100</v>
       </c>
       <c r="E71" s="3">
-        <v>6.6799999999999998E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F71" s="3">
         <v>2256.6999999999998</v>
@@ -3240,13 +3983,13 @@
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C72" s="3">
-        <v>63.520408163265301</v>
+        <v>63.524999999999999</v>
       </c>
       <c r="D72" s="2">
         <v>1400</v>
       </c>
       <c r="E72" s="3">
-        <v>0.13159999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="F72" s="3">
         <v>2227.0500000000002</v>
@@ -3254,13 +3997,13 @@
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C73" s="3">
-        <v>63.775510204081598</v>
+        <v>63.78</v>
       </c>
       <c r="D73" s="2">
         <v>900</v>
       </c>
       <c r="E73" s="3">
-        <v>3.6653386454183201E-2</v>
+        <v>0.04</v>
       </c>
       <c r="F73" s="3">
         <v>2291.77</v>
@@ -3268,13 +4011,13 @@
     </row>
     <row r="74" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C74" s="3">
-        <v>63.775510204081598</v>
+        <v>63.783000000000001</v>
       </c>
       <c r="D74" s="2">
         <v>1000</v>
       </c>
       <c r="E74" s="3">
-        <v>5.1792828685258897E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F74" s="3">
         <v>2272.06</v>
@@ -3282,13 +4025,13 @@
     </row>
     <row r="75" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C75" s="3">
-        <v>63.775510204081598</v>
+        <v>63.784999999999997</v>
       </c>
       <c r="D75" s="2">
         <v>1700</v>
       </c>
       <c r="E75" s="3">
-        <v>0.50039840637450195</v>
+        <v>0.5</v>
       </c>
       <c r="F75" s="3">
         <v>2211.36</v>
@@ -3296,13 +4039,13 @@
     </row>
     <row r="76" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C76" s="3">
-        <v>63.775510204081598</v>
+        <v>63.786999999999999</v>
       </c>
       <c r="D76" s="2">
         <v>1800</v>
       </c>
       <c r="E76" s="3">
-        <v>0.68924302788844605</v>
+        <v>0.69</v>
       </c>
       <c r="F76" s="3">
         <v>2207.91</v>
@@ -3310,13 +4053,13 @@
     </row>
     <row r="77" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C77" s="3">
-        <v>63.775510204081598</v>
+        <v>63.787999999999997</v>
       </c>
       <c r="D77" s="2">
         <v>1900</v>
       </c>
       <c r="E77" s="3">
-        <v>0.37928286852589599</v>
+        <v>0.38</v>
       </c>
       <c r="F77" s="3">
         <v>2205.08</v>
@@ -3324,13 +4067,13 @@
     </row>
     <row r="78" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C78" s="3">
-        <v>63.775510204081598</v>
+        <v>63.789000000000001</v>
       </c>
       <c r="D78" s="2">
         <v>2000</v>
       </c>
       <c r="E78" s="3">
-        <v>0.29920318725099598</v>
+        <v>0.3</v>
       </c>
       <c r="F78" s="3">
         <v>2202.75</v>
